--- a/dbms_homework.xlsx
+++ b/dbms_homework.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artem/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artem/Desktop/DBMS/DBMS_hw/DBMS_hw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDD8EA8-A566-264F-BF5A-8053763D23F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CB0CA3-5DDA-0F4B-AA61-A33E5A1734AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1099,6 +1099,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,12 +1116,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4374,50 +4374,6 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>821765</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>119530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>194687</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>110429</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBB6514-5DB2-5D44-B96B-742250BF6A50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3511177" y="8367059"/>
-          <a:ext cx="3526569" cy="3098664"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>672352</xdr:colOff>
       <xdr:row>92</xdr:row>
@@ -4443,7 +4399,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4487,7 +4443,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4531,7 +4487,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4575,7 +4531,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4918,8 +4874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI374"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S120" sqref="S120"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6020,9 +5976,7 @@
       <c r="H79" s="8">
         <v>3</v>
       </c>
-      <c r="J79" s="26">
-        <v>12</v>
-      </c>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C80" s="28" t="s">
@@ -6043,9 +5997,7 @@
       <c r="H80" s="8">
         <v>87</v>
       </c>
-      <c r="J80" s="26">
-        <v>56</v>
-      </c>
+      <c r="J80" s="26"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C81" s="28"/>
@@ -6058,9 +6010,7 @@
       <c r="H81" s="8">
         <v>90</v>
       </c>
-      <c r="J81" s="26">
-        <v>5</v>
-      </c>
+      <c r="J81" s="26"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C82" s="28"/>
@@ -8413,14 +8363,14 @@
       <c r="Q268" s="50"/>
       <c r="R268" s="50"/>
       <c r="S268" s="50"/>
-      <c r="T268" s="61" t="s">
+      <c r="T268" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="U268" s="61"/>
-      <c r="V268" s="61" t="s">
+      <c r="U268" s="57"/>
+      <c r="V268" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="W268" s="61"/>
+      <c r="W268" s="57"/>
     </row>
     <row r="269" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A269" s="51"/>
@@ -8456,14 +8406,14 @@
       <c r="S269" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="T269" s="57" t="s">
+      <c r="T269" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="U269" s="57"/>
-      <c r="V269" s="57" t="s">
+      <c r="U269" s="59"/>
+      <c r="V269" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="W269" s="57"/>
+      <c r="W269" s="59"/>
       <c r="X269" s="51"/>
       <c r="AE269" s="51"/>
       <c r="AF269" s="51"/>
@@ -8497,14 +8447,14 @@
       <c r="S270" s="53">
         <v>0</v>
       </c>
-      <c r="T270" s="57">
+      <c r="T270" s="59">
         <v>0</v>
       </c>
-      <c r="U270" s="57"/>
-      <c r="V270" s="57">
+      <c r="U270" s="59"/>
+      <c r="V270" s="59">
         <v>1</v>
       </c>
-      <c r="W270" s="57"/>
+      <c r="W270" s="59"/>
     </row>
     <row r="271" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B271" s="1"/>
@@ -8530,14 +8480,14 @@
       <c r="S271" s="53">
         <v>0</v>
       </c>
-      <c r="T271" s="57">
+      <c r="T271" s="59">
         <v>0</v>
       </c>
-      <c r="U271" s="57"/>
-      <c r="V271" s="57">
+      <c r="U271" s="59"/>
+      <c r="V271" s="59">
         <v>1</v>
       </c>
-      <c r="W271" s="57"/>
+      <c r="W271" s="59"/>
     </row>
     <row r="272" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B272" s="1"/>
@@ -8568,14 +8518,14 @@
       <c r="S272" s="53">
         <v>0</v>
       </c>
-      <c r="T272" s="57">
+      <c r="T272" s="59">
         <v>1</v>
       </c>
-      <c r="U272" s="57"/>
-      <c r="V272" s="57">
+      <c r="U272" s="59"/>
+      <c r="V272" s="59">
         <v>1</v>
       </c>
-      <c r="W272" s="57"/>
+      <c r="W272" s="59"/>
     </row>
     <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B273" s="1"/>
@@ -8606,28 +8556,28 @@
       <c r="S273" s="53">
         <v>1</v>
       </c>
-      <c r="T273" s="57">
+      <c r="T273" s="59">
         <v>1</v>
       </c>
-      <c r="U273" s="57"/>
-      <c r="V273" s="57">
+      <c r="U273" s="59"/>
+      <c r="V273" s="59">
         <v>0</v>
       </c>
-      <c r="W273" s="57"/>
+      <c r="W273" s="59"/>
     </row>
     <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B274" s="1"/>
       <c r="F274" s="28"/>
     </row>
     <row r="277" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="K277" s="62" t="s">
+      <c r="K277" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="L277" s="62"/>
-      <c r="M277" s="62" t="s">
+      <c r="L277" s="58"/>
+      <c r="M277" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="N277" s="62"/>
+      <c r="N277" s="58"/>
     </row>
     <row r="278" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="I278" s="54" t="s">
@@ -8636,14 +8586,14 @@
       <c r="J278" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="K278" s="58" t="s">
+      <c r="K278" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="L278" s="58"/>
-      <c r="M278" s="59" t="s">
+      <c r="L278" s="60"/>
+      <c r="M278" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="N278" s="60"/>
+      <c r="N278" s="62"/>
     </row>
     <row r="279" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="I279" s="54">
@@ -8652,14 +8602,14 @@
       <c r="J279" s="54">
         <v>0</v>
       </c>
-      <c r="K279" s="58">
+      <c r="K279" s="60">
         <v>0</v>
       </c>
-      <c r="L279" s="58"/>
-      <c r="M279" s="59">
+      <c r="L279" s="60"/>
+      <c r="M279" s="61">
         <v>1</v>
       </c>
-      <c r="N279" s="60"/>
+      <c r="N279" s="62"/>
     </row>
     <row r="280" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="I280" s="54">
@@ -8668,14 +8618,14 @@
       <c r="J280" s="54">
         <v>1</v>
       </c>
-      <c r="K280" s="58">
+      <c r="K280" s="60">
         <v>0</v>
       </c>
-      <c r="L280" s="58"/>
-      <c r="M280" s="59">
+      <c r="L280" s="60"/>
+      <c r="M280" s="61">
         <v>1</v>
       </c>
-      <c r="N280" s="60"/>
+      <c r="N280" s="62"/>
     </row>
     <row r="281" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="I281" s="54">
@@ -8684,14 +8634,14 @@
       <c r="J281" s="54">
         <v>0</v>
       </c>
-      <c r="K281" s="58">
+      <c r="K281" s="60">
         <v>1</v>
       </c>
-      <c r="L281" s="58"/>
-      <c r="M281" s="59">
+      <c r="L281" s="60"/>
+      <c r="M281" s="61">
         <v>1</v>
       </c>
-      <c r="N281" s="60"/>
+      <c r="N281" s="62"/>
     </row>
     <row r="282" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="I282" s="54">
@@ -8700,14 +8650,14 @@
       <c r="J282" s="54">
         <v>1</v>
       </c>
-      <c r="K282" s="58">
+      <c r="K282" s="60">
         <v>1</v>
       </c>
-      <c r="L282" s="58"/>
-      <c r="M282" s="58">
+      <c r="L282" s="60"/>
+      <c r="M282" s="60">
         <v>0</v>
       </c>
-      <c r="N282" s="58"/>
+      <c r="N282" s="60"/>
     </row>
     <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287">
@@ -9295,12 +9245,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="T268:U268"/>
-    <mergeCell ref="V268:W268"/>
-    <mergeCell ref="K277:L277"/>
-    <mergeCell ref="M277:N277"/>
-    <mergeCell ref="T269:U269"/>
-    <mergeCell ref="V269:W269"/>
     <mergeCell ref="K282:L282"/>
     <mergeCell ref="M282:N282"/>
     <mergeCell ref="T270:U270"/>
@@ -9317,6 +9261,12 @@
     <mergeCell ref="V272:W272"/>
     <mergeCell ref="K281:L281"/>
     <mergeCell ref="M281:N281"/>
+    <mergeCell ref="T268:U268"/>
+    <mergeCell ref="V268:W268"/>
+    <mergeCell ref="K277:L277"/>
+    <mergeCell ref="M277:N277"/>
+    <mergeCell ref="T269:U269"/>
+    <mergeCell ref="V269:W269"/>
     <mergeCell ref="T273:U273"/>
     <mergeCell ref="V273:W273"/>
   </mergeCells>
